--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengdacheng/personal/ISPA2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengdacheng/Documents/Website/ISPA2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="960" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Track1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="748">
   <si>
     <t>Given Name</t>
   </si>
@@ -1921,10 +1921,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>depeiq@xjtu.edu.cn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Tania</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2004,6 +2000,429 @@
   </si>
   <si>
     <t>erwinl@pdc.kth.se</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mohammad Shahadat</t>
+  </si>
+  <si>
+    <t>Hossain</t>
+  </si>
+  <si>
+    <t>University of Chittagong</t>
+  </si>
+  <si>
+    <t>Hossain_ms@cu.ac.bd</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Palmieri</t>
+  </si>
+  <si>
+    <t>Salerno University</t>
+  </si>
+  <si>
+    <t>fpalmier@unina.it</t>
+  </si>
+  <si>
+    <t>Chao-Tung</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Tunghai University</t>
+  </si>
+  <si>
+    <t>ctyang@thu.edu.tw</t>
+  </si>
+  <si>
+    <t>Panagiotis</t>
+  </si>
+  <si>
+    <t>Karampelas</t>
+  </si>
+  <si>
+    <t>Hellenic Air Force Academy</t>
+  </si>
+  <si>
+    <t>pkarampelas@gmail.com</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>Jianlong</t>
+  </si>
+  <si>
+    <t>Zhong</t>
+  </si>
+  <si>
+    <t>Facebook, Inc.</t>
+  </si>
+  <si>
+    <t>zh.jianlong@gmail.com</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Lefevre</t>
+  </si>
+  <si>
+    <t>Inria</t>
+  </si>
+  <si>
+    <t>laurent.lefevre@ens-lyon.fr</t>
+  </si>
+  <si>
+    <t>Complutense University of Madrid</t>
+  </si>
+  <si>
+    <t>Forschungszentrum Jlich, ZAM</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Masucci</t>
+  </si>
+  <si>
+    <t>bmasucci@unisa.it</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>Huaqiao University</t>
+  </si>
+  <si>
+    <t>wangtian@hqu.edu.cn</t>
+  </si>
+  <si>
+    <t>Hamid</t>
+  </si>
+  <si>
+    <t>Sarbazi-Azad</t>
+  </si>
+  <si>
+    <t>Sharif University of Technology and IPM</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>azad@sharif.edu</t>
+  </si>
+  <si>
+    <t>Sotirios</t>
+  </si>
+  <si>
+    <t>Ziavras</t>
+  </si>
+  <si>
+    <t>ziavras@njit.edu</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Cathryn</t>
+  </si>
+  <si>
+    <t>Peoples</t>
+  </si>
+  <si>
+    <t>Ulster University &amp; The Open University</t>
+  </si>
+  <si>
+    <t>cathryn.j.peoples@ieee.o
+rg</t>
+  </si>
+  <si>
+    <t>Hamad bin Khalifa University (HBKU)</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Salvatore</t>
+  </si>
+  <si>
+    <t>Venticinque</t>
+  </si>
+  <si>
+    <t>University of Campania “Luigi Vanvitelli”</t>
+  </si>
+  <si>
+    <t>salvatore.venticinque@unicampania.it</t>
+  </si>
+  <si>
+    <t>Dragan</t>
+  </si>
+  <si>
+    <t>Simic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Novi Sad </t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>dsimic@eunet.rs</t>
+  </si>
+  <si>
+    <t>Suren</t>
+  </si>
+  <si>
+    <t>Byna</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley Laboratory</t>
+  </si>
+  <si>
+    <t>sbyna@lbl.gov</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Andersson</t>
+  </si>
+  <si>
+    <t>Lulea University of Technology</t>
+  </si>
+  <si>
+    <t>karl.andersson@ltu.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP </t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>University of Keele</t>
+  </si>
+  <si>
+    <t>k.p.lam@keele.ac.uk</t>
+  </si>
+  <si>
+    <t>Jing</t>
+  </si>
+  <si>
+    <t>jchen@mail.ncku.edu.tw</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Bernal Bernabe</t>
+  </si>
+  <si>
+    <t>jorgebernal@um.es</t>
+  </si>
+  <si>
+    <t>Aparicio</t>
+  </si>
+  <si>
+    <t>Carranza</t>
+  </si>
+  <si>
+    <t>CUNY C NYC College of Technology</t>
+  </si>
+  <si>
+    <t>acarranza@citytech.cuny.edu</t>
+  </si>
+  <si>
+    <t>National Taipei University</t>
+  </si>
+  <si>
+    <t>Gregoire</t>
+  </si>
+  <si>
+    <t>Danoy</t>
+  </si>
+  <si>
+    <t>University of Luxembourg</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>gregoire.danoy@uni.lu</t>
+  </si>
+  <si>
+    <t>qiandp@mail.sysu.edu.cn</t>
+  </si>
+  <si>
+    <t>University of Trieste</t>
+  </si>
+  <si>
+    <t>Anne-Cecile</t>
+  </si>
+  <si>
+    <t>Orgerie</t>
+  </si>
+  <si>
+    <t>CNRS, IRISA</t>
+  </si>
+  <si>
+    <t>anne-cecile.orgerie@irisa.fr</t>
+  </si>
+  <si>
+    <t>Oak Ridge National Laboratory</t>
+  </si>
+  <si>
+    <t>Michihiro</t>
+  </si>
+  <si>
+    <t>Koibuchi</t>
+  </si>
+  <si>
+    <t>National Institute of Informatics</t>
+  </si>
+  <si>
+    <t>koibuchi@nii.ac.jp</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Schoettner</t>
+  </si>
+  <si>
+    <t>University of Duesseldorf</t>
+  </si>
+  <si>
+    <t>michael.schoettner@uni-duesseldorf.de</t>
+  </si>
+  <si>
+    <t>Toshihiro</t>
+  </si>
+  <si>
+    <t>Hanawa</t>
+  </si>
+  <si>
+    <t>Unviersity of Tokyo</t>
+  </si>
+  <si>
+    <t>hanawa@cc.u-tokyo.ac.jp</t>
+  </si>
+  <si>
+    <t>Dongyoon</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>dongyoon@vt.edu</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Erdody</t>
+  </si>
+  <si>
+    <t>Open Parallel Ltd</t>
+  </si>
+  <si>
+    <t>nicolas.erdody@openparallel.com</t>
+  </si>
+  <si>
+    <t>Peng</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>peng.zhang@stonybrook.edu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Javier</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garcia Villalba</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>javiergv@fdi.ucm.es</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morris</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riedel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.riedel@fz-juelich.de</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subhash</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saini</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>subhash.saini@nasa.gov</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Savio</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sciancalepore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>savio.sciancalepore@gmail.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yue-Shan </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysc@mail.ntpu.edu.tw</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alfredo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuzzocrea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuzzocrea@si.dimes.unical.it</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seyong</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lee</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lees2@ornl.gov</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2167,7 +2586,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2234,8 +2653,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,7 +2673,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2260,14 +2680,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="Collegamento ipertestuale" xfId="2"/>
     <cellStyle name="Hiperv韓culo" xfId="5"/>
     <cellStyle name="Hiperv眍culo" xfId="9"/>
     <cellStyle name="Hiperv抧culo" xfId="3"/>
     <cellStyle name="Hiper彻cze" xfId="7"/>
     <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="nCp[N" xfId="64"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="蹲丑挡" xfId="63"/>
     <cellStyle name="禬硈挡" xfId="6"/>
     <cellStyle name="窍捞欺傅农" xfId="8"/>
     <cellStyle name="僴僀僷乕儕儞僋" xfId="4"/>
@@ -2625,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2641,13 +3063,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2803,388 +3225,388 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>686</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>687</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>688</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>396</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>254</v>
+        <v>398</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>239</v>
+        <v>397</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>255</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>241</v>
+        <v>672</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>242</v>
+        <v>673</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>239</v>
+        <v>674</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>243</v>
+        <v>675</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>601</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>537</v>
+        <v>690</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>557</v>
+        <v>691</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>558</v>
+        <v>692</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>386</v>
+        <v>241</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>385</v>
+        <v>239</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>600</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>249</v>
+        <v>556</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>251</v>
+        <v>557</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>252</v>
+        <v>558</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>418</v>
+        <v>684</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>417</v>
+        <v>537</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>415</v>
+        <v>685</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>564</v>
+        <v>386</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>565</v>
+        <v>245</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>566</v>
+        <v>385</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>567</v>
+        <v>384</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>544</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>545</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>237</v>
+        <v>694</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>238</v>
+        <v>695</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>239</v>
+        <v>696</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>697</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>240</v>
+        <v>698</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>519</v>
+        <v>418</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>521</v>
+        <v>415</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>292</v>
+        <v>565</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>291</v>
+        <v>566</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>495</v>
+        <v>311</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>568</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>594</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>595</v>
+        <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>596</v>
+        <v>128</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>520</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -3193,1222 +3615,1602 @@
         <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>32</v>
+        <v>521</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>494</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>378</v>
+        <v>308</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>302</v>
+        <v>568</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>300</v>
+        <v>594</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>299</v>
+        <v>595</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>559</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>560</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>561</v>
+        <v>22</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>562</v>
+        <v>132</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>363</v>
+        <v>505</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>361</v>
+        <v>506</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>360</v>
+        <v>507</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>189</v>
+        <v>714</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>715</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>574</v>
+        <v>716</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>192</v>
+        <v>717</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>191</v>
+        <v>378</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>421</v>
+        <v>234</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>120</v>
+        <v>561</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>419</v>
+        <v>562</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>361</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>338</v>
+        <v>190</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>337</v>
+        <v>574</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>39</v>
+        <v>421</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>314</v>
+        <v>120</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>313</v>
+        <v>419</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>77</v>
+        <v>706</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>322</v>
+        <v>707</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>31</v>
+        <v>708</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>321</v>
+        <v>709</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>50</v>
+        <v>336</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>143</v>
+        <v>718</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>144</v>
+        <v>719</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>145</v>
+        <v>720</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>298</v>
+        <v>636</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>637</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>297</v>
+        <v>638</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>296</v>
+        <v>639</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>537</v>
+        <v>38</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>549</v>
+        <v>40</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>550</v>
+        <v>42</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>602</v>
+        <v>77</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>603</v>
+        <v>322</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>604</v>
+        <v>31</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>605</v>
+        <v>321</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>392</v>
+        <v>8</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>256</v>
+        <v>537</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>239</v>
+        <v>549</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>258</v>
+        <v>550</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>157</v>
+        <v>642</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>643</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>160</v>
+        <v>644</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>22</v>
+        <v>411</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>601</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>602</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>603</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>68</v>
+        <v>604</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>502</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>503</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>504</v>
+        <v>152</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>497</v>
+        <v>701</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>498</v>
+        <v>702</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>499</v>
+        <v>703</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>501</v>
+        <v>704</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>161</v>
+        <v>619</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>620</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>163</v>
+        <v>621</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>164</v>
+        <v>622</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>489</v>
+        <v>657</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>491</v>
+        <v>659</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>492</v>
+        <v>660</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>383</v>
+        <v>59</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>382</v>
+        <v>61</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>381</v>
+        <v>62</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>273</v>
+        <v>648</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>272</v>
+        <v>649</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>271</v>
+        <v>650</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>170</v>
+        <v>651</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>270</v>
+        <v>652</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>269</v>
+        <v>710</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>268</v>
+        <v>711</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>267</v>
+        <v>712</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>266</v>
+        <v>713</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>527</v>
+        <v>300</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>94</v>
+        <v>498</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>95</v>
+        <v>499</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>96</v>
+        <v>501</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>542</v>
+        <v>262</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>491</v>
+        <v>264</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>543</v>
+        <v>265</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>552</v>
+        <v>289</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>553</v>
+        <v>287</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>554</v>
+        <v>285</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>167</v>
+        <v>663</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>168</v>
+        <v>665</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>169</v>
+        <v>666</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>540</v>
+        <v>75</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>541</v>
+        <v>76</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>529</v>
+        <v>77</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>530</v>
+        <v>78</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
+    <row r="94" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:E98">
-    <sortCondition ref="B82"/>
+  <sortState ref="A3:E113">
+    <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1"/>
-    <hyperlink ref="E49" r:id="rId2"/>
-    <hyperlink ref="E37" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E62" r:id="rId5"/>
+    <hyperlink ref="E36" r:id="rId1"/>
+    <hyperlink ref="E58" r:id="rId2"/>
+    <hyperlink ref="E43" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E75" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4417,10 +5219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4433,13 +5235,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4479,10 +5281,10 @@
     </row>
     <row r="4" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>575</v>
@@ -4491,46 +5293,46 @@
         <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>579</v>
+        <v>740</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>580</v>
+        <v>448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>555</v>
+        <v>693</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>581</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>449</v>
+        <v>580</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>246</v>
+        <v>555</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>450</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>449</v>
@@ -4542,567 +5344,703 @@
         <v>247</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>439</v>
+        <v>742</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>440</v>
+        <v>743</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>700</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>441</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>295</v>
+        <v>433</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>218</v>
+        <v>439</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>219</v>
+        <v>440</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>220</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>453</v>
+        <v>728</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>454</v>
+        <v>729</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>248</v>
+        <v>640</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>455</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>224</v>
+        <v>457</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>225</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>613</v>
+        <v>218</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>614</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>615</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>462</v>
+        <v>612</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>463</v>
+        <v>613</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>464</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>221</v>
+        <v>745</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>222</v>
+        <v>746</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>211</v>
+        <v>705</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>232</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>434</v>
+        <v>229</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>486</v>
+        <v>230</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>487</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>583</v>
+        <v>401</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>563</v>
+        <v>291</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>584</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>546</v>
+        <v>435</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>548</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>431</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>226</v>
+        <v>582</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>227</v>
+        <v>583</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>445</v>
+        <v>547</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>446</v>
+        <v>221</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>546</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>589</v>
+        <v>469</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>573</v>
+        <v>348</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>590</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>331</v>
+        <v>431</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>516</v>
+        <v>226</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>517</v>
+        <v>227</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>515</v>
+        <v>213</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>518</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>478</v>
+        <v>589</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>194</v>
+        <v>573</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>479</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>459</v>
+        <v>731</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>460</v>
+        <v>732</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>312</v>
+        <v>641</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>461</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>206</v>
+        <v>465</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>207</v>
+        <v>466</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>208</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>474</v>
+        <v>734</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>475</v>
+        <v>735</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>364</v>
+        <v>656</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>476</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>509</v>
+        <v>737</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>551</v>
+        <v>738</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>508</v>
+        <v>661</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>8</v>
+        <v>662</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>510</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>587</v>
       </c>
     </row>
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:E39">
-    <sortCondition ref="B18"/>
+  <sortState ref="A3:E47">
+    <sortCondition ref="B32"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
-    <hyperlink ref="E20" r:id="rId4"/>
-    <hyperlink ref="E33" r:id="rId5"/>
+    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E40" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5111,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5127,13 +6065,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5194,541 +6132,653 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>351</v>
+        <v>676</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>677</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>353</v>
+        <v>678</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>354</v>
+        <v>679</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>606</v>
+        <v>351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>607</v>
+        <v>352</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>608</v>
+        <v>353</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>609</v>
+        <v>354</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>537</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>538</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>407</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>610</v>
+        <v>405</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>611</v>
+        <v>406</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>608</v>
+        <v>407</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>188</v>
+        <v>408</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>612</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>284</v>
+        <v>610</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>356</v>
+        <v>596</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>358</v>
+        <v>555</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>359</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>326</v>
+        <v>721</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>325</v>
+        <v>722</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>324</v>
+        <v>723</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>199</v>
+      <c r="E14" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>183</v>
+        <v>615</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>184</v>
+        <v>616</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
+        <v>617</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>187</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>627</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>628</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>180</v>
+        <v>629</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>182</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>680</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>681</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>682</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>533</v>
+        <v>281</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>534</v>
+        <v>279</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>535</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>387</v>
+        <v>183</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>389</v>
+        <v>185</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>511</v>
+        <v>179</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>512</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>513</v>
+        <v>180</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>514</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>426</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>428</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>429</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>277</v>
+        <v>533</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>275</v>
+        <v>534</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>274</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>284</v>
+        <v>387</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>176</v>
+        <v>511</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>600</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>233</v>
+        <v>667</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>294</v>
+        <v>668</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>669</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>670</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>293</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
   </sheetData>
-  <sortState ref="A3:E42">
-    <sortCondition ref="B32"/>
+  <sortState ref="A3:E41">
+    <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E27" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="E33" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="748">
   <si>
     <t>Given Name</t>
   </si>
@@ -3050,7 +3050,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6049,10 +6049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6665,103 +6665,86 @@
     </row>
     <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="4" t="s">
         <v>110</v>
       </c>
     </row>

--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="755">
   <si>
     <t>Given Name</t>
   </si>
@@ -2424,6 +2424,27 @@
   <si>
     <t>lees2@ornl.gov</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dounia</t>
+  </si>
+  <si>
+    <t>Khaldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel Corporation</t>
+  </si>
+  <si>
+    <t>khaldi.dounia@gmail.com</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London</t>
+  </si>
+  <si>
+    <t>felix.cuadrado@qmul.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2677,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2673,9 +2694,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3063,13 +3081,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3945,1260 +3963,1279 @@
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>422</v>
+        <v>748</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>421</v>
+        <v>749</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>419</v>
+        <v>751</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>706</v>
+        <v>422</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>707</v>
+        <v>421</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>708</v>
+        <v>420</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>709</v>
+        <v>419</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>706</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>707</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>35</v>
+        <v>708</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>37</v>
+        <v>709</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>339</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>718</v>
+        <v>339</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>719</v>
+        <v>337</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>720</v>
+        <v>336</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>637</v>
+        <v>280</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>38</v>
+        <v>636</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>39</v>
+        <v>637</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>40</v>
+        <v>638</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>313</v>
+        <v>142</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>297</v>
+        <v>144</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>537</v>
+        <v>298</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>549</v>
+        <v>297</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>550</v>
+        <v>296</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>146</v>
+        <v>537</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>148</v>
+        <v>549</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>149</v>
+        <v>550</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>642</v>
+        <v>146</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>643</v>
+        <v>147</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>644</v>
+        <v>149</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>320</v>
+        <v>642</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>319</v>
+        <v>643</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>317</v>
+        <v>644</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>601</v>
+        <v>414</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>602</v>
+        <v>413</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>603</v>
+        <v>412</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>604</v>
+        <v>410</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>52</v>
+        <v>602</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>53</v>
+        <v>603</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>55</v>
+        <v>604</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>701</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>702</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>703</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>704</v>
+        <v>152</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>153</v>
+        <v>701</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>702</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>155</v>
+        <v>703</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>156</v>
+        <v>704</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>619</v>
+        <v>153</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>620</v>
+        <v>154</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>621</v>
+        <v>155</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>622</v>
+        <v>156</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>657</v>
+        <v>619</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>395</v>
+        <v>657</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>394</v>
+        <v>658</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>393</v>
+        <v>659</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>391</v>
+        <v>660</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>256</v>
+        <v>395</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>258</v>
+        <v>391</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>648</v>
+        <v>69</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>649</v>
+        <v>70</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>650</v>
+        <v>201</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>651</v>
+        <v>71</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>652</v>
+        <v>72</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>710</v>
+        <v>648</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>711</v>
+        <v>649</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>712</v>
+        <v>650</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>170</v>
+        <v>651</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>502</v>
+        <v>710</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>300</v>
+        <v>712</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>504</v>
+        <v>713</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>499</v>
+        <v>300</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>500</v>
+        <v>54</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>262</v>
+        <v>497</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>263</v>
+        <v>498</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>264</v>
+        <v>499</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>265</v>
+        <v>501</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>489</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>490</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>491</v>
+        <v>163</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>492</v>
+        <v>164</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>288</v>
+        <v>490</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>287</v>
+        <v>491</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>285</v>
+        <v>492</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>663</v>
+        <v>289</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>664</v>
+        <v>288</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>665</v>
+        <v>287</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>666</v>
+        <v>285</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>73</v>
+        <v>663</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>74</v>
+        <v>664</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>665</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>381</v>
+        <v>166</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>598</v>
+        <v>233</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>599</v>
+        <v>381</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>86</v>
+        <v>598</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>623</v>
+        <v>273</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>624</v>
+        <v>272</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>625</v>
+        <v>271</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>626</v>
+        <v>270</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>269</v>
+        <v>623</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>268</v>
+        <v>624</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>267</v>
+        <v>625</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>266</v>
+        <v>626</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>525</v>
+        <v>269</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>526</v>
+        <v>268</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>527</v>
+        <v>267</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>528</v>
+        <v>266</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>94</v>
+        <v>526</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>95</v>
+        <v>527</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>96</v>
+        <v>528</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>542</v>
+        <v>93</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>491</v>
+        <v>95</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>104</v>
+        <v>542</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>106</v>
+        <v>543</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>522</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>524</v>
+        <v>106</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>167</v>
+        <v>552</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>168</v>
+        <v>553</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>169</v>
+        <v>554</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>540</v>
+        <v>168</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>541</v>
+        <v>169</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>632</v>
+        <v>233</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>633</v>
+        <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>530</v>
+        <v>633</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>531</v>
+        <v>634</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>653</v>
+        <v>529</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>654</v>
+        <v>530</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>655</v>
+        <v>532</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
+    <row r="114" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:E113">
+  <sortState ref="A3:E114">
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="1">
@@ -5207,10 +5244,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E36" r:id="rId1"/>
-    <hyperlink ref="E58" r:id="rId2"/>
+    <hyperlink ref="E59" r:id="rId2"/>
     <hyperlink ref="E43" r:id="rId3"/>
     <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E75" r:id="rId5"/>
+    <hyperlink ref="E76" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5235,13 +5272,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6049,10 +6086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6065,13 +6102,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6257,494 +6294,511 @@
     </row>
     <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>284</v>
+        <v>752</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>555</v>
+        <v>753</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>597</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>615</v>
+        <v>195</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>616</v>
+        <v>196</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>617</v>
+        <v>197</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>411</v>
+        <v>198</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>618</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>369</v>
+        <v>615</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>371</v>
+        <v>617</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>372</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>627</v>
+        <v>369</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>628</v>
+        <v>370</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>629</v>
+        <v>371</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>630</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>281</v>
+        <v>680</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>280</v>
+        <v>681</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>279</v>
+        <v>682</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>278</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>533</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>535</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>387</v>
+        <v>533</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>389</v>
+        <v>534</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>390</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>511</v>
+        <v>347</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>512</v>
+        <v>346</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>514</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>667</v>
+        <v>426</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>668</v>
+        <v>427</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>669</v>
+        <v>428</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>670</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>671</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>277</v>
+        <v>667</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>276</v>
+        <v>668</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>275</v>
+        <v>669</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>174</v>
+        <v>670</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>274</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>645</v>
+        <v>373</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>646</v>
+        <v>374</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>647</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>645</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>84</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6757,9 +6811,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1"/>
-    <hyperlink ref="E21" r:id="rId2"/>
-    <hyperlink ref="E33" r:id="rId3"/>
+    <hyperlink ref="E33" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+    <hyperlink ref="E34" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
     <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>

--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Track1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="758">
   <si>
     <t>Given Name</t>
   </si>
@@ -2445,6 +2445,15 @@
   </si>
   <si>
     <t>felix.cuadrado@qmul.ac.uk</t>
+  </si>
+  <si>
+    <t>Gong</t>
+  </si>
+  <si>
+    <t>KTH Royal Institute of Technology</t>
+  </si>
+  <si>
+    <t>gongjing@kth.se</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2676,6 +2685,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2698,7 +2708,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="66">
     <cellStyle name="Collegamento ipertestuale" xfId="2"/>
     <cellStyle name="Hiperv韓culo" xfId="5"/>
     <cellStyle name="Hiperv眍culo" xfId="9"/>
@@ -2764,6 +2774,7 @@
     <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3067,7 +3078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -6086,10 +6097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6396,409 +6407,426 @@
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>615</v>
+        <v>684</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>616</v>
+        <v>755</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>617</v>
+        <v>756</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>618</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>369</v>
+        <v>615</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>371</v>
+        <v>617</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>372</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>627</v>
+        <v>369</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>628</v>
+        <v>370</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>629</v>
+        <v>371</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>630</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>681</v>
+        <v>628</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>683</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>281</v>
+        <v>680</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>280</v>
+        <v>681</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>279</v>
+        <v>682</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>278</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>340</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>533</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>535</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>387</v>
+        <v>533</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>389</v>
+        <v>534</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>390</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>511</v>
+        <v>347</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>512</v>
+        <v>346</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>514</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>667</v>
+        <v>426</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>668</v>
+        <v>427</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>669</v>
+        <v>428</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>670</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>671</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>277</v>
+        <v>667</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>276</v>
+        <v>668</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>275</v>
+        <v>669</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>174</v>
+        <v>670</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>274</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>645</v>
+        <v>373</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>646</v>
+        <v>374</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>647</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>645</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>646</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>84</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6811,13 +6839,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E33" r:id="rId1"/>
-    <hyperlink ref="E22" r:id="rId2"/>
-    <hyperlink ref="E34" r:id="rId3"/>
+    <hyperlink ref="E34" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E35" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
     <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E18" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="763">
   <si>
     <t>Given Name</t>
   </si>
@@ -2454,6 +2454,24 @@
   </si>
   <si>
     <t>gongjing@kth.se</t>
+  </si>
+  <si>
+    <t>Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Akron</t>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwei1@uakron.edu</t>
   </si>
 </sst>
 </file>
@@ -6097,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6747,92 +6765,109 @@
     </row>
     <row r="38" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>81</v>
+        <v>759</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>758</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>83</v>
+        <v>760</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>200</v>
+        <v>761</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>84</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>293</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E41">
-    <sortCondition ref="B2"/>
+  <sortState ref="A3:E43">
+    <sortCondition ref="B24"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/ISPA PC Members.xlsx
+++ b/ISPA PC Members.xlsx
@@ -2464,14 +2464,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>University of Akron</t>
-  </si>
-  <si>
     <t>USA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jwei1@uakron.edu</t>
+  </si>
+  <si>
+    <t>The University of Akron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6117,8 +6118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6771,13 +6772,13 @@
         <v>758</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.2">
